--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Dグループ_エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7A48B-2DBC-431F-862D-0CA1D24667E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B3F64-B0C7-478A-BD2F-BBA50F4CA084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="2" r:id="rId1"/>
@@ -3530,7 +3530,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3087"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3088"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4198,7 +4198,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6157"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6158"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4582,7 +4582,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7179"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7180"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4966,7 +4966,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8203"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8204"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7422,7 +7422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2365E3-520A-48C7-B347-EA5A0791AF41}">
   <dimension ref="B23:AB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -7935,7 +7935,7 @@
       <c r="O38" s="138"/>
       <c r="P38" s="138"/>
       <c r="Q38" s="124"/>
-      <c r="R38" s="124"/>
+      <c r="R38" s="106"/>
       <c r="S38" s="133"/>
       <c r="T38" s="133"/>
       <c r="U38" s="124"/>
@@ -8011,7 +8011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C8471-899E-4678-A7F2-CEE3CFECD3C8}">
   <dimension ref="B23:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
